--- a/prospects_com_whatsapp_atualizado.xlsx
+++ b/prospects_com_whatsapp_atualizado.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="3756"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prospects_com_whatsapp_atualiza" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
